--- a/src/assets/templateFiles/weather template.xlsx
+++ b/src/assets/templateFiles/weather template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BillManagement\UI\src\assets\templateFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F894B60-37F0-4A8C-A84B-FDA2685EC4E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE7FA29-F9FD-490A-886A-40F091961054}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{86B370E9-D8E9-477F-AB3B-B0B7C1815D35}"/>
+    <workbookView xWindow="-7665" yWindow="2175" windowWidth="15375" windowHeight="7875" xr2:uid="{86B370E9-D8E9-477F-AB3B-B0B7C1815D35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>1399/11/12</t>
   </si>
@@ -55,6 +55,33 @@
   </si>
   <si>
     <t>1399/11/21</t>
+  </si>
+  <si>
+    <t>تاریخ شمسی</t>
+  </si>
+  <si>
+    <t>حداکثر دما</t>
+  </si>
+  <si>
+    <t>حداقل دما</t>
+  </si>
+  <si>
+    <t>میانگین دما</t>
+  </si>
+  <si>
+    <t>حداقل رطوبت</t>
+  </si>
+  <si>
+    <t>حداکثر رطوبت</t>
+  </si>
+  <si>
+    <t>میانگین رطوبت</t>
+  </si>
+  <si>
+    <t>تابش</t>
+  </si>
+  <si>
+    <t>سرعت باد</t>
   </si>
 </sst>
 </file>
@@ -412,275 +439,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FC1057-D29C-4FD4-87FC-D435B82E30F6}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>12</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>13</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>14</v>
       </c>
-      <c r="E1">
+      <c r="E2">
         <v>15</v>
       </c>
-      <c r="F1">
+      <c r="F2">
         <v>16</v>
       </c>
-      <c r="G1">
+      <c r="G2">
         <v>17</v>
       </c>
-      <c r="H1">
+      <c r="H2">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="I2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>13</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>14</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>15</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>16</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>17</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>18</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="I3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>14</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>15</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>16</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>17</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>18</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>19</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="I4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>15</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>16</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>17</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>18</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>19</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>20</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="I5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>16</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>17</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>18</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>19</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>20</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>21</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="I6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>17</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>18</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>19</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>20</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>21</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>22</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="I7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>18</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>19</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>20</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>21</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>22</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>23</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="I8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>19</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>20</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>21</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>22</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>23</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>24</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="I9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>20</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>21</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>22</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>23</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>24</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>25</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="I10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>21</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>22</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>23</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>24</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>25</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>26</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>27</v>
+      </c>
+      <c r="I11">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
